--- a/DATAFILE.xlsx
+++ b/DATAFILE.xlsx
@@ -14,21 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>army_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>moed</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>Tim</t>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>8488884</t>
+  </si>
+  <si>
+    <t>8484884</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>0:12:41</t>
+  </si>
+  <si>
+    <t>0:21:11</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
 </sst>
 </file>
@@ -386,62 +416,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>98.03571428571428</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>133</v>
+      <c r="F3">
+        <v>6.964285714285714</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
